--- a/ThisLife/RenewTheGuaranteeCellList/Files/TemplateFiles/TemplateFromID.xlsx
+++ b/ThisLife/RenewTheGuaranteeCellList/Files/TemplateFiles/TemplateFromID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2G" sheetId="6" r:id="rId1"/>
@@ -14,15 +14,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2G'!$A$1:$Y$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTE!$A$1:$AA$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TD!$A$1:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTE!$A$1:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TD!$A$1:$W$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>保障类型</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>模式（普通/下沉）</t>
+  </si>
+  <si>
+    <t>CGI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECGI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -871,12 +879,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,7 +895,7 @@
     <col min="6" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -922,40 +930,43 @@
         <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -978,9 +989,10 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V2"/>
+  <autoFilter ref="A1:W2"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,7 +1015,7 @@
     <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1044,49 +1056,52 @@
         <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1102,9 +1117,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="8"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1114,9 +1129,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA2"/>
+  <autoFilter ref="A1:AB2"/>
   <sortState ref="A2:AR9055">
     <sortCondition ref="H1"/>
   </sortState>

--- a/ThisLife/RenewTheGuaranteeCellList/Files/TemplateFiles/TemplateFromID.xlsx
+++ b/ThisLife/RenewTheGuaranteeCellList/Files/TemplateFiles/TemplateFromID.xlsx
@@ -13,16 +13,16 @@
     <sheet name="WLAN" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2G'!$A$1:$Y$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTE!$A$1:$AB$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TD!$A$1:$W$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2G'!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTE!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TD!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>保障类型</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>ECGI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -750,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,7 +781,7 @@
     <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -841,8 +857,14 @@
       <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="Z1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -868,9 +890,11 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y2"/>
+  <autoFilter ref="A1:AA1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -879,12 +903,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,7 +919,7 @@
     <col min="6" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -965,8 +989,14 @@
       <c r="W1" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="X1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -990,9 +1020,11 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W2"/>
+  <autoFilter ref="A1:Y1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1000,11 +1032,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,7 +1047,7 @@
     <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1100,8 +1132,14 @@
       <c r="AB1" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="AC1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1130,9 +1168,11 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB2"/>
+  <autoFilter ref="A1:AD1"/>
   <sortState ref="A2:AR9055">
     <sortCondition ref="H1"/>
   </sortState>
